--- a/media/files/2017/07/730.xlsx
+++ b/media/files/2017/07/730.xlsx
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1440,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -1454,11 +1454,13 @@
       <c r="F15" s="10">
         <v>10</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <v>10</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="4">
         <f>SUM(C15:H15)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="8"/>
@@ -1468,21 +1470,21 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
       <c r="E16" s="10">
         <v>10</v>
       </c>
       <c r="F16" s="10">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <v>10</v>
-      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="9"/>
       <c r="I16" s="4">
         <f>SUM(C16:H16)</f>
@@ -1496,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -1524,16 +1526,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10</v>
+      </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9">
-        <v>40</v>
-      </c>
+      <c r="E18" s="10">
+        <v>10</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
+        <v>10</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="4">
         <f>SUM(C18:H18)</f>
         <v>40</v>
@@ -1546,22 +1554,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="10">
-        <v>10</v>
-      </c>
-      <c r="D19" s="10">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10">
-        <v>10</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10">
-        <v>10</v>
-      </c>
-      <c r="H19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9">
+        <v>40</v>
+      </c>
       <c r="I19" s="4">
         <f>SUM(C19:H19)</f>
         <v>40</v>
@@ -1574,18 +1576,18 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="C20" s="10">
+        <v>10</v>
+      </c>
       <c r="D20" s="10">
         <v>10</v>
       </c>
       <c r="E20" s="10">
         <v>10</v>
       </c>
-      <c r="F20" s="10">
-        <v>10</v>
-      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="10">
         <v>10</v>
       </c>
@@ -1602,20 +1604,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="10">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10">
+        <v>10</v>
+      </c>
       <c r="G21" s="10">
         <v>10</v>
       </c>
-      <c r="H21" s="9">
-        <v>20</v>
-      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="4">
         <f>SUM(C21:H21)</f>
         <v>40</v>
@@ -1628,23 +1632,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10">
-        <v>10</v>
-      </c>
-      <c r="G22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
+        <v>10</v>
+      </c>
       <c r="H22" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4">
         <f>SUM(C22:H22)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
@@ -1654,21 +1658,23 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="C23" s="10">
+        <v>10</v>
+      </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10">
-        <v>10</v>
-      </c>
+      <c r="F23" s="10">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I23" s="4">
         <f>SUM(C23:H23)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
@@ -1678,20 +1684,18 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="10">
-        <v>10</v>
-      </c>
-      <c r="E24" s="10">
-        <v>10</v>
-      </c>
-      <c r="F24" s="10">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9">
+        <v>20</v>
+      </c>
       <c r="I24" s="4">
         <f>SUM(C24:H24)</f>
         <v>30</v>
@@ -3003,7 +3007,7 @@
       <c r="M86" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="B3:I86">
+  <sortState ref="A3:I86">
     <sortCondition descending="1" ref="I4"/>
   </sortState>
   <dataConsolidate/>
